--- a/res/testcase/PakringOperation/UpgradeService/sell.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="8895" tabRatio="1000" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,10 @@
     <sheet name="005_exportBusinessTicketCode" sheetId="6" r:id="rId6"/>
     <sheet name="006_batchReturnVoucher" sheetId="7" r:id="rId7"/>
     <sheet name="007_exportSellRecord" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
+    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
@@ -987,10 +986,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1019,8 +1018,24 @@
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1028,14 +1043,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1056,22 +1063,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1080,14 +1071,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1102,6 +1094,22 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
@@ -1109,39 +1117,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,9 +1133,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,43 +1177,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,25 +1195,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1256,73 +1207,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1340,7 +1225,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1352,13 +1273,91 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1389,20 +1388,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1446,30 +1449,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1484,6 +1463,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,10 +1491,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,137 +1503,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="27" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1658,9 +1657,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
@@ -2072,218 +2068,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -2351,7 +2347,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2359,7 +2355,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2367,7 +2363,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2375,7 +2371,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2414,8 +2410,8 @@
   <sheetPr/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="C60" sqref="C60"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3373,7 +3369,7 @@
       <c r="C60" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D60" s="8"/>
+      <c r="D60" s="4"/>
       <c r="E60" s="2" t="s">
         <v>249</v>
       </c>
@@ -3388,7 +3384,7 @@
       <c r="C61" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="D61" s="8"/>
+      <c r="D61" s="4"/>
       <c r="E61" s="2" t="s">
         <v>252</v>
       </c>
@@ -3547,11 +3543,11 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C86:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C31 C32 C35 C36 C37 B38 C38 C39 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C33:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C31 C32 C35 C36 C37 B38 C38 C39 C68 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C33:C34">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C41:C42">
@@ -3566,9 +3562,6 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62 C65 C66 C67 C69 C71 C63:C64">
       <formula1>[2]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
-      <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3582,7 +3575,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -3826,7 +3819,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4479,8 +4472,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4693,7 +4686,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4881,20 +4874,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="A1" sqref="$A1:$XFD57"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
-</worksheet>
 </file>
--- a/res/testcase/PakringOperation/UpgradeService/sell.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="8895" tabRatio="1000" firstSheet="1" activeTab="6"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -15,17 +15,18 @@
     <sheet name="005_exportBusinessTicketCode" sheetId="6" r:id="rId6"/>
     <sheet name="006_batchReturnVoucher" sheetId="7" r:id="rId7"/>
     <sheet name="007_exportSellRecord" sheetId="8" r:id="rId8"/>
+    <sheet name="Sheet1" sheetId="9" r:id="rId9"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId9"/>
     <externalReference r:id="rId10"/>
+    <externalReference r:id="rId11"/>
   </externalReferences>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="318">
   <si>
     <t>动作</t>
   </si>
@@ -988,8 +989,8 @@
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1018,17 +1019,45 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1043,35 +1072,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1085,19 +1086,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1109,25 +1102,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1141,8 +1117,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1155,8 +1155,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1183,6 +1184,42 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1195,7 +1232,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1207,25 +1262,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1243,25 +1322,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,91 +1352,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1382,15 +1383,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1425,30 +1417,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1478,8 +1446,41 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1491,10 +1492,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1503,16 +1504,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1521,119 +1522,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1653,6 +1654,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2068,218 +2072,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="10" t="s">
+      <c r="A2" s="10" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="9" t="s">
+      <c r="A4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="11" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="9" t="s">
+      <c r="A5" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="9" t="s">
+      <c r="A6" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="10" t="s">
+      <c r="B6" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="9" t="s">
+      <c r="A7" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="10" t="s">
+      <c r="B7" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="9" t="s">
+      <c r="A9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="9" t="s">
+      <c r="A10" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="10" t="s">
+      <c r="B10" s="11" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="9" t="s">
+      <c r="A11" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="10" t="s">
+      <c r="B11" s="11" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="9" t="s">
+      <c r="A12" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="10" t="s">
+      <c r="B12" s="11" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="9" t="s">
+      <c r="A13" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="10" t="s">
+      <c r="B14" s="11" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="9" t="s">
+      <c r="A15" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="10" t="s">
+      <c r="B15" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="9" t="s">
+      <c r="A16" s="10" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="9" t="s">
+      <c r="A17" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="10" t="s">
+      <c r="B17" s="11" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="9" t="s">
+      <c r="A18" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="10" t="s">
+      <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="9" t="s">
+      <c r="A19" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="B19" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="9" t="s">
+      <c r="A20" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="10" t="s">
+      <c r="B20" s="11" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="9" t="s">
+      <c r="A21" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="10" t="s">
+      <c r="B21" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="9" t="s">
+      <c r="A22" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="10" t="s">
+      <c r="B22" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="9" t="s">
+      <c r="A23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="10" t="s">
+      <c r="B23" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="9" t="s">
+      <c r="A24" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="10" t="s">
+      <c r="B24" s="11" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="9" t="s">
+      <c r="A25" s="10" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="9" t="s">
+      <c r="A26" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="10" t="s">
+      <c r="B26" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="9" t="s">
+      <c r="A27" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="10"/>
+      <c r="B27" s="11"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -2347,7 +2351,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="10" t="s">
+      <c r="B36" s="11" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2355,7 +2359,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="10" t="s">
+      <c r="B37" s="11" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2363,7 +2367,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="10" t="s">
+      <c r="B38" s="11" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2371,7 +2375,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="10" t="s">
+      <c r="B39" s="11" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2410,8 +2414,8 @@
   <sheetPr/>
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2561,7 +2565,7 @@
       <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E9"/>
+      <c r="E9" s="7"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
@@ -3196,7 +3200,7 @@
       <c r="C49" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D49" s="8" t="s">
         <v>224</v>
       </c>
       <c r="E49" s="4"/>
@@ -3543,24 +3547,27 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C86:C1048576">
+  <dataValidations count="7">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C79:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C31 C32 C35 C36 C37 B38 C38 C39 C68 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C33:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C41:C42">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C31 C32 C35 C36 C37 B38 C38 C39 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C33:C34">
+      <formula1>[1]Actions!#REF!</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62 C65 C66 C67 C69 C71 C63:C64">
+      <formula1>[2]Actions!#REF!</formula1>
+    </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54 B55 C55">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 C57 C58 C59 C60 C61 C70 C72:C85">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 C57 C58 C59 C60 C61 C70 C72:C78">
       <formula1>Actions!$A$2:$A$50</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62 C65 C66 C67 C69 C71 C63:C64">
-      <formula1>[2]Actions!#REF!</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4472,8 +4479,8 @@
   <sheetPr/>
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
@@ -4874,4 +4881,20 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <headerFooter/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A1" sqref="$A1:$XFD58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
 </file>
--- a/res/testcase/PakringOperation/UpgradeService/sell.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/sell.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="679" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="687" uniqueCount="323">
   <si>
     <t>动作</t>
   </si>
@@ -568,19 +568,40 @@
     <t>30</t>
   </si>
   <si>
+    <t>点击信息查询</t>
+  </si>
+  <si>
+    <t>CarStatusPage.信息查询</t>
+  </si>
+  <si>
     <t>31</t>
   </si>
   <si>
+    <t>点击车场运营</t>
+  </si>
+  <si>
     <t>32</t>
   </si>
   <si>
+    <t>点击电子优惠券</t>
+  </si>
+  <si>
+    <t>33</t>
+  </si>
+  <si>
+    <t>点击优惠配置</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
     <t>输入搜索框</t>
   </si>
   <si>
     <t>SettingVoucherPage.搜索框</t>
   </si>
   <si>
-    <t>33</t>
+    <t>35</t>
   </si>
   <si>
     <t>点击搜索按钮</t>
@@ -589,13 +610,13 @@
     <t>SettingVoucherPage.搜索按钮</t>
   </si>
   <si>
-    <t>34</t>
+    <t>36</t>
   </si>
   <si>
     <t>4查询界面</t>
   </si>
   <si>
-    <t>35</t>
+    <t>37</t>
   </si>
   <si>
     <t>点击启用</t>
@@ -604,34 +625,34 @@
     <t>SettingVoucherPage.启用</t>
   </si>
   <si>
-    <t>36</t>
+    <t>38</t>
   </si>
   <si>
     <t>SettingVoucherPage.确认-提示</t>
   </si>
   <si>
-    <t>37</t>
-  </si>
-  <si>
-    <t>38</t>
+    <t>39</t>
+  </si>
+  <si>
+    <t>40</t>
   </si>
   <si>
     <t>5操作成功</t>
   </si>
   <si>
-    <t>39</t>
+    <t>41</t>
   </si>
   <si>
     <t>点击元素</t>
   </si>
   <si>
-    <t>40</t>
+    <t>42</t>
   </si>
   <si>
     <t>点击优惠管理</t>
   </si>
   <si>
-    <t>41</t>
+    <t>43</t>
   </si>
   <si>
     <t>点击售买管理</t>
@@ -640,13 +661,13 @@
     <t>SellPage.售买管理</t>
   </si>
   <si>
-    <t>42</t>
+    <t>44</t>
   </si>
   <si>
     <t>6售买管理界面</t>
   </si>
   <si>
-    <t>43</t>
+    <t>45</t>
   </si>
   <si>
     <t>添加销售优惠券</t>
@@ -655,7 +676,7 @@
     <t>SellPage.销售优惠券</t>
   </si>
   <si>
-    <t>44</t>
+    <t>46</t>
   </si>
   <si>
     <t>输入优惠券名称</t>
@@ -664,7 +685,7 @@
     <t>SellPage.优惠券名称</t>
   </si>
   <si>
-    <t>45</t>
+    <t>47</t>
   </si>
   <si>
     <t>点击商户名称</t>
@@ -673,7 +694,7 @@
     <t>SellPage.商户名称</t>
   </si>
   <si>
-    <t>46</t>
+    <t>48</t>
   </si>
   <si>
     <t>输入商家名称搜索</t>
@@ -685,7 +706,7 @@
     <t>$售卖管理.商家名称</t>
   </si>
   <si>
-    <t>47</t>
+    <t>49</t>
   </si>
   <si>
     <t>点击商户选择-搜索按钮</t>
@@ -694,7 +715,7 @@
     <t>SellPage.商户选择-搜索按钮</t>
   </si>
   <si>
-    <t>48</t>
+    <t>50</t>
   </si>
   <si>
     <t>点击商户选择</t>
@@ -703,7 +724,7 @@
     <t>SellPage.商户选择</t>
   </si>
   <si>
-    <t>49</t>
+    <t>51</t>
   </si>
   <si>
     <t>输入购买数量</t>
@@ -712,7 +733,7 @@
     <t>SellPage.购买数量</t>
   </si>
   <si>
-    <t>50</t>
+    <t>52</t>
   </si>
   <si>
     <t>输入商家折扣价</t>
@@ -721,43 +742,43 @@
     <t>SellPage.商家折扣价</t>
   </si>
   <si>
-    <t>51</t>
+    <t>53</t>
   </si>
   <si>
     <t>SellPage.描述</t>
   </si>
   <si>
-    <t>52</t>
+    <t>54</t>
   </si>
   <si>
     <t>7售卖管理界面</t>
   </si>
   <si>
-    <t>53</t>
+    <t>55</t>
   </si>
   <si>
     <t>SellPage.确认-提示</t>
   </si>
   <si>
-    <t>54</t>
+    <t>56</t>
   </si>
   <si>
     <t>SellPage.操作成功-提示</t>
   </si>
   <si>
-    <t>55</t>
+    <t>57</t>
   </si>
   <si>
     <t>8操作成功</t>
   </si>
   <si>
-    <t>56</t>
+    <t>58</t>
   </si>
   <si>
     <t>车牌号</t>
   </si>
   <si>
-    <t>57</t>
+    <t>59</t>
   </si>
   <si>
     <t>模拟进场</t>
@@ -766,19 +787,19 @@
     <t>${001_addSellTicket}.车牌号;0</t>
   </si>
   <si>
-    <t>58</t>
+    <t>60</t>
   </si>
   <si>
     <t>暂停3秒</t>
   </si>
   <si>
-    <t>59</t>
+    <t>61</t>
   </si>
   <si>
     <t>${001_addSellTicket}.车牌号</t>
   </si>
   <si>
-    <t>60</t>
+    <t>62</t>
   </si>
   <si>
     <t>模拟出场</t>
@@ -787,25 +808,19 @@
     <t>${001_addSellTicket}.车牌号;1</t>
   </si>
   <si>
-    <t>61</t>
-  </si>
-  <si>
-    <t>点击车场运营</t>
+    <t>63</t>
   </si>
   <si>
     <t>UseRecordPage.车场运营</t>
   </si>
   <si>
-    <t>62</t>
-  </si>
-  <si>
-    <t>点击电子优惠券</t>
+    <t>64</t>
   </si>
   <si>
     <t>UseRecordPage.电子优惠券</t>
   </si>
   <si>
-    <t>63</t>
+    <t>65</t>
   </si>
   <si>
     <t>点击使用记录</t>
@@ -814,19 +829,19 @@
     <t>UseRecordPage.使用记录</t>
   </si>
   <si>
-    <t>64</t>
+    <t>66</t>
   </si>
   <si>
     <t>暂停5秒</t>
   </si>
   <si>
-    <t>65</t>
+    <t>67</t>
   </si>
   <si>
     <t>9商家券使用流水界面</t>
   </si>
   <si>
-    <t>66</t>
+    <t>68</t>
   </si>
   <si>
     <t>点击多项筛选</t>
@@ -835,7 +850,7 @@
     <t>UseRecordPage.多项筛选</t>
   </si>
   <si>
-    <t>67</t>
+    <t>69</t>
   </si>
   <si>
     <t>输入车牌号</t>
@@ -844,19 +859,19 @@
     <t>UseRecordPage.车牌号</t>
   </si>
   <si>
-    <t>68</t>
+    <t>70</t>
   </si>
   <si>
     <t>UseRecordPage.搜索按钮</t>
   </si>
   <si>
-    <t>69</t>
+    <t>71</t>
   </si>
   <si>
     <t>UseRecordPage.记录列表</t>
   </si>
   <si>
-    <t>70</t>
+    <t>72</t>
   </si>
   <si>
     <t>10商家券使用流水搜索界面</t>
@@ -987,10 +1002,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1020,14 +1035,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1035,7 +1058,38 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1050,83 +1104,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1142,7 +1120,37 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1150,6 +1158,13 @@
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1178,25 +1193,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,7 +1247,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,7 +1325,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1238,19 +1349,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1262,103 +1361,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1387,6 +1402,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -1398,6 +1452,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1417,41 +1491,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1460,30 +1499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1492,10 +1507,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1504,137 +1519,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="24" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1654,9 +1669,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2072,218 +2084,218 @@
   </cols>
   <sheetData>
     <row r="1" ht="15" spans="1:2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="10" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="10" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:2">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="10" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="10" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="9" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="10" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="10" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:2">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="10" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="10" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:2">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="10" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="14" spans="1:2">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="15" spans="1:2">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="9" t="s">
         <v>28</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:2">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="9" t="s">
         <v>30</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" ht="27" spans="1:2">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="9" t="s">
         <v>32</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:2">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:2">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="B19" s="11" t="s">
+      <c r="B19" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:2">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B20" s="11" t="s">
+      <c r="B20" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="21" spans="1:2">
-      <c r="A21" s="10" t="s">
+      <c r="A21" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="B21" s="11" t="s">
+      <c r="B21" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="22" ht="27" spans="1:2">
-      <c r="A22" s="10" t="s">
+      <c r="A22" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="B22" s="11" t="s">
+      <c r="B22" s="10" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="B23" s="11" t="s">
+      <c r="B23" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="24" spans="1:2">
-      <c r="A24" s="10" t="s">
+      <c r="A24" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="25" spans="1:2">
-      <c r="A25" s="10" t="s">
+      <c r="A25" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="26" ht="27" spans="1:2">
-      <c r="A26" s="10" t="s">
+      <c r="A26" s="9" t="s">
         <v>50</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="27" spans="1:2">
-      <c r="A27" s="10" t="s">
+      <c r="A27" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="11"/>
+      <c r="B27" s="10"/>
     </row>
     <row r="28" spans="1:2">
       <c r="A28" s="4" t="s">
@@ -2351,7 +2363,7 @@
       <c r="A36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" s="11" t="s">
+      <c r="B36" s="10" t="s">
         <v>68</v>
       </c>
     </row>
@@ -2359,7 +2371,7 @@
       <c r="A37" t="s">
         <v>69</v>
       </c>
-      <c r="B37" s="11" t="s">
+      <c r="B37" s="10" t="s">
         <v>70</v>
       </c>
     </row>
@@ -2367,7 +2379,7 @@
       <c r="A38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2375,7 +2387,7 @@
       <c r="A39" t="s">
         <v>72</v>
       </c>
-      <c r="B39" s="11" t="s">
+      <c r="B39" s="10" t="s">
         <v>73</v>
       </c>
     </row>
@@ -2412,10 +2424,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:H71"/>
+  <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -2565,7 +2577,7 @@
       <c r="D9" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A10" s="2" t="s">
@@ -2917,262 +2929,260 @@
         <v>179</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>44</v>
+        <v>180</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D31" s="2"/>
+        <v>2</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="E31" s="2"/>
     </row>
     <row r="32" s="6" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A32" s="2" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>16</v>
+        <v>183</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="33" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="E32" s="2"/>
+    </row>
+    <row r="33" s="6" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A33" s="2" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>183</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="34" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+        <v>88</v>
+      </c>
+      <c r="E33" s="2"/>
+    </row>
+    <row r="34" s="6" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A34" s="2" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>186</v>
+        <v>91</v>
       </c>
       <c r="E34" s="2"/>
     </row>
     <row r="35" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A35" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>93</v>
+        <v>189</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D35" s="4"/>
+        <v>10</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E35" s="2" t="s">
-        <v>188</v>
+        <v>105</v>
       </c>
     </row>
     <row r="36" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A36" s="2" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D36" s="4" t="s">
-        <v>191</v>
+      <c r="D36" s="2" t="s">
+        <v>193</v>
       </c>
       <c r="E36" s="2"/>
     </row>
     <row r="37" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A37" s="2" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>193</v>
-      </c>
-      <c r="E37" s="2"/>
+        <v>53</v>
+      </c>
+      <c r="D37" s="4"/>
+      <c r="E37" s="2" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="38" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A38" s="2" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>69</v>
+        <v>197</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="E38" s="2" t="s">
-        <v>174</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D38" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="2"/>
     </row>
     <row r="39" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
       <c r="A39" s="2" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B39" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="E39" s="2"/>
+    </row>
+    <row r="40" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A40" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="E40" s="2" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="41" s="1" customFormat="1" ht="28" customHeight="1" spans="1:5">
+      <c r="A41" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C39" s="2" t="s">
+      <c r="C41" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D39" s="2"/>
-      <c r="E39" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="40" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A40" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>198</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="E40" s="2"/>
-    </row>
-    <row r="41" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A41" s="2" t="s">
-        <v>199</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>200</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D41" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E41" s="4"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="42" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A42" s="2" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>203</v>
-      </c>
-      <c r="E42" s="4"/>
-    </row>
-    <row r="43" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>85</v>
+      </c>
+      <c r="E42" s="2"/>
+    </row>
+    <row r="43" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A43" s="2" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D43" s="2"/>
-      <c r="E43" s="2" t="s">
-        <v>205</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A44" s="2" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E44" s="4"/>
     </row>
-    <row r="45" customFormat="1" ht="33" customHeight="1" spans="1:5">
+    <row r="45" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A45" s="2" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>210</v>
+        <v>93</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="D45" s="2"/>
       <c r="E45" s="2" t="s">
-        <v>105</v>
+        <v>212</v>
       </c>
     </row>
     <row r="46" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A46" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="E46" s="4"/>
     </row>
     <row r="47" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A47" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>217</v>
+        <v>20</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>218</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>218</v>
+        <v>105</v>
       </c>
     </row>
     <row r="48" customFormat="1" ht="33" customHeight="1" spans="1:5">
@@ -3185,7 +3195,7 @@
       <c r="C48" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D48" s="4" t="s">
+      <c r="D48" s="2" t="s">
         <v>221</v>
       </c>
       <c r="E48" s="4"/>
@@ -3198,237 +3208,239 @@
         <v>223</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D49" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" s="4" t="s">
         <v>224</v>
       </c>
-      <c r="E49" s="4"/>
+      <c r="E49" s="2" t="s">
+        <v>225</v>
+      </c>
     </row>
     <row r="50" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A50" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>227</v>
-      </c>
-      <c r="E50" s="2" t="s">
-        <v>95</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A51" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D51" s="2" t="s">
-        <v>230</v>
-      </c>
-      <c r="E51" s="2" t="s">
-        <v>113</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D51" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A52" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>166</v>
+        <v>233</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D52" s="2" t="s">
-        <v>232</v>
+      <c r="D52" s="5" t="s">
+        <v>234</v>
       </c>
       <c r="E52" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A53" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="E53" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A54" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E54" s="2" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="53" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
-      <c r="A53" s="2" t="s">
-        <v>233</v>
-      </c>
-      <c r="B53" s="2" t="s">
+    <row r="55" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A55" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C53" s="2" t="s">
+      <c r="C55" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D53" s="2"/>
-      <c r="E53" s="2" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="54" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A54" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D54" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="E54" s="4"/>
-    </row>
-    <row r="55" customFormat="1" ht="27" customHeight="1" spans="1:5">
-      <c r="A55" s="2" t="s">
-        <v>237</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>238</v>
-      </c>
+      <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>174</v>
+        <v>241</v>
       </c>
     </row>
     <row r="56" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A56" s="2" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>93</v>
+        <v>114</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D56" s="4"/>
-      <c r="E56" s="2" t="s">
-        <v>240</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A57" s="2" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="D57" s="4"/>
+        <v>69</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>245</v>
+      </c>
       <c r="E57" s="2" t="s">
-        <v>242</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A58" s="2" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>244</v>
+        <v>93</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="D58" s="4"/>
       <c r="E58" s="2" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A59" s="2" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>247</v>
+        <v>77</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>12</v>
+        <v>77</v>
       </c>
       <c r="D59" s="4"/>
       <c r="E59" s="2" t="s">
-        <v>95</v>
+        <v>249</v>
       </c>
     </row>
     <row r="60" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A60" s="2" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>76</v>
+        <v>251</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="D60" s="4"/>
       <c r="E60" s="2" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
     </row>
     <row r="61" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A61" s="2" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="D61" s="4"/>
       <c r="E61" s="2" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="62" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="62" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A62" s="2" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>254</v>
+        <v>76</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D62" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="E62" s="2"/>
-    </row>
-    <row r="63" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>76</v>
+      </c>
+      <c r="D62" s="4"/>
+      <c r="E62" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="63" customFormat="1" ht="27" customHeight="1" spans="1:5">
       <c r="A63" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E63" s="2"/>
+        <v>78</v>
+      </c>
+      <c r="D63" s="4"/>
+      <c r="E63" s="2" t="s">
+        <v>259</v>
+      </c>
     </row>
     <row r="64" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A64" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>260</v>
+        <v>183</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>2</v>
@@ -3443,69 +3455,67 @@
         <v>262</v>
       </c>
       <c r="B65" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D65" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="C65" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="D65" s="2"/>
-      <c r="E65" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="66" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="E65" s="2"/>
+    </row>
+    <row r="66" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A66" s="2" t="s">
         <v>264</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>93</v>
+        <v>265</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D66" s="2"/>
-      <c r="E66" s="2" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="67" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+        <v>2</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="E66" s="2"/>
+    </row>
+    <row r="67" s="1" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A67" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>268</v>
-      </c>
-      <c r="E67" s="2"/>
+        <v>12</v>
+      </c>
+      <c r="D67" s="2"/>
+      <c r="E67" s="2" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="68" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A68" s="2" t="s">
         <v>269</v>
       </c>
       <c r="B68" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="C68" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
         <v>270</v>
       </c>
-      <c r="C68" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D68" s="2" t="s">
+    </row>
+    <row r="69" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
+      <c r="A69" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="E68" s="2" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="69" s="6" customFormat="1" ht="35" customHeight="1" spans="1:5">
-      <c r="A69" s="2" t="s">
+      <c r="B69" s="2" t="s">
         <v>272</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>185</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>2</v>
@@ -3515,58 +3525,90 @@
       </c>
       <c r="E69" s="2"/>
     </row>
-    <row r="70" ht="27" customHeight="1" spans="1:5">
+    <row r="70" s="6" customFormat="1" ht="33" customHeight="1" spans="1:5">
       <c r="A70" s="2" t="s">
         <v>274</v>
       </c>
       <c r="B70" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="E70" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="71" s="6" customFormat="1" ht="35" customHeight="1" spans="1:5">
+      <c r="A71" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="E71" s="2"/>
+    </row>
+    <row r="72" ht="27" customHeight="1" spans="1:5">
+      <c r="A72" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C70" s="2" t="s">
+      <c r="C72" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="D70" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="E70" s="2" t="s">
+      <c r="D72" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="E72" s="2" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="71" ht="35" customHeight="1" spans="1:5">
-      <c r="A71" s="2" t="s">
-        <v>276</v>
-      </c>
-      <c r="B71" s="2" t="s">
+    <row r="73" ht="35" customHeight="1" spans="1:5">
+      <c r="A73" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="C71" s="2" t="s">
+      <c r="C73" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="E71" s="2" t="s">
-        <v>277</v>
+      <c r="E73" s="2" t="s">
+        <v>282</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="7">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C79:C1048576">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C81:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C68">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C43:C44">
+      <formula1>Actions!$A$2:$A$40</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31 C32">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C40 C43 C44 C45 C46 C47 C48 C49 C50 C51 C52 C53 C41:C42">
-      <formula1>Actions!$A$2:$A$40</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C31 C32 C35 C36 C37 B38 C38 C39 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C33:C34">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C33 C34 C37 C38 C39 B40 C40 C41 C70 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C35:C36">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C62 C65 C66 C67 C69 C71 C63:C64">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64 C67 C68 C69 C71 C73 C65:C66">
       <formula1>[2]Actions!#REF!</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C54 B55 C55">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 B57 C57">
       <formula1>Actions!$A$2:$A$37</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C56 C57 C58 C59 C60 C61 C70 C72:C78">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C58 C59 C60 C61 C62 C63 C72 C74:C80">
       <formula1>Actions!$A$2:$A$50</formula1>
     </dataValidation>
   </dataValidations>
@@ -3653,7 +3695,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3669,7 +3711,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3677,13 +3719,13 @@
         <v>98</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>105</v>
@@ -3700,7 +3742,7 @@
         <v>2</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -3715,7 +3757,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3724,13 +3766,13 @@
         <v>109</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>156</v>
@@ -3748,7 +3790,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3762,7 +3804,7 @@
         <v>2</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E11" s="2"/>
     </row>
@@ -3777,7 +3819,7 @@
         <v>69</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>174</v>
@@ -3794,7 +3836,7 @@
         <v>53</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -3897,7 +3939,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -3913,7 +3955,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3921,13 +3963,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -3936,16 +3978,16 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -3959,7 +4001,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -3968,7 +4010,7 @@
         <v>106</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>12</v>
@@ -3989,10 +4031,10 @@
         <v>36</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4007,7 +4049,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4015,13 +4057,13 @@
         <v>116</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="E12" s="2"/>
     </row>
@@ -4125,7 +4167,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4141,7 +4183,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4149,16 +4191,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4166,13 +4208,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4188,7 +4230,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4202,7 +4244,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4217,10 +4259,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4235,7 +4277,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -4338,7 +4380,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4354,7 +4396,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4362,16 +4404,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4379,13 +4421,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4401,7 +4443,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4415,7 +4457,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4430,10 +4472,10 @@
         <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
     </row>
     <row r="11" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4448,7 +4490,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>
@@ -4551,7 +4593,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4567,7 +4609,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4575,16 +4617,16 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>72</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
     </row>
     <row r="7" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4592,13 +4634,13 @@
         <v>98</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="E7" s="2"/>
     </row>
@@ -4614,7 +4656,7 @@
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="2" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4628,7 +4670,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E9" s="2"/>
     </row>
@@ -4643,7 +4685,7 @@
         <v>69</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>174</v>
@@ -4661,7 +4703,7 @@
       </c>
       <c r="D11" s="4"/>
       <c r="E11" s="2" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
@@ -4764,7 +4806,7 @@
         <v>2</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="E4" s="2"/>
     </row>
@@ -4780,7 +4822,7 @@
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4788,13 +4830,13 @@
         <v>95</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="E6" s="2"/>
     </row>
@@ -4810,7 +4852,7 @@
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="2" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4824,7 +4866,7 @@
         <v>2</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="E8" s="2"/>
     </row>
@@ -4839,10 +4881,10 @@
         <v>69</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>316</v>
+        <v>321</v>
       </c>
     </row>
     <row r="10" s="1" customFormat="1" ht="27" customHeight="1" spans="1:5">
@@ -4857,7 +4899,7 @@
       </c>
       <c r="D10" s="4"/>
       <c r="E10" s="2" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
     </row>
   </sheetData>

--- a/res/testcase/PakringOperation/UpgradeService/sell.xlsx
+++ b/res/testcase/PakringOperation/UpgradeService/sell.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="1" activeTab="1"/>
+    <workbookView windowWidth="21600" windowHeight="9765" tabRatio="1000" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Actions" sheetId="1" r:id="rId1"/>
@@ -1002,10 +1002,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -1041,29 +1041,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -1077,14 +1054,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1102,9 +1071,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1115,37 +1083,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1163,6 +1100,62 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -1172,7 +1165,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1193,7 +1193,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,25 +1205,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1236,54 +1218,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1343,13 +1277,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1374,6 +1326,54 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1402,6 +1402,54 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1420,23 +1468,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1466,39 +1499,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1507,145 +1507,145 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -2426,8 +2426,8 @@
   <sheetPr/>
   <dimension ref="A1:H73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -3589,17 +3589,14 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="7">
+  <dataValidations count="6">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C1 C81:C1048576">
       <formula1>Actions!$A$2:$A$27</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C42 C45 C46 C47 C48 C49 C50 C51 C52 C53 C54 C55 C43:C44">
       <formula1>Actions!$A$2:$A$40</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C31 C32">
-      <formula1>[1]Actions!#REF!</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C33 C34 C37 C38 C39 B40 C40 C41 C70 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C35:C36">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C5 C6 C7 C8 C9 C10 C11 C12 C17 C26 C27 C28 C29 C30 C31 C32 C33 C34 C37 C38 C39 B40 C40 C41 C70 C2:C4 C13:C16 C18:C19 C20:C21 C22:C23 C24:C25 C35:C36">
       <formula1>[1]Actions!#REF!</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C64 C67 C68 C69 C71 C73 C65:C66">
@@ -3623,8 +3620,8 @@
   <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
